--- a/Exercise Files/01_06.xlsx
+++ b/Exercise Files/01_06.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Johnson\Desktop\Exercise Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quintiles-my.sharepoint.com/personal/mdmuntaha_islam_iqvia_com/Documents/Documents/My Courses/Data-Analytics-for-Business-Professionals/Exercise Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_0D1634248C185343513050EAE9913FB208078C69" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{21FADB9E-4B06-43E4-9126-83980C88C226}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3015" windowWidth="28800" windowHeight="14055"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exercise" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,12 +40,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>John Johnson</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0" shapeId="0">
+    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="0" shapeId="0">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -84,7 +94,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -108,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0" shapeId="0">
+    <comment ref="D6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -199,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -556,25 +566,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.296875" customWidth="1"/>
+    <col min="4" max="4" width="31.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -582,7 +592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -590,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -604,7 +614,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>101</v>
       </c>
@@ -618,7 +628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>102</v>
       </c>
@@ -632,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>103</v>
       </c>
@@ -643,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>104</v>
       </c>
@@ -654,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>105</v>
       </c>
@@ -665,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>106</v>
       </c>
@@ -676,7 +686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>107</v>
       </c>
@@ -687,7 +697,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>108</v>
       </c>
@@ -698,7 +708,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>109</v>
       </c>
@@ -712,7 +722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>110</v>
       </c>
@@ -723,7 +733,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>111</v>
       </c>
@@ -734,7 +744,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>112</v>
       </c>
@@ -745,7 +755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>113</v>
       </c>
@@ -759,7 +769,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>114</v>
       </c>
@@ -770,7 +780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>115</v>
       </c>
@@ -784,33 +794,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <f>SUM(C7:C21)/15</f>
+        <v>13.783333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <f>_xlfn.MODE.SNGL(C7:C21)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>16</v>
       </c>
+      <c r="B29">
+        <f>MEDIAN(C7:C21)</f>
+        <v>13.75</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Exercise Files/01_06.xlsx
+++ b/Exercise Files/01_06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://quintiles-my.sharepoint.com/personal/mdmuntaha_islam_iqvia_com/Documents/Documents/My Courses/Data-Analytics-for-Business-Professionals/Exercise Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0D1634248C185343513050EAE9913FB208078C69" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{21FADB9E-4B06-43E4-9126-83980C88C226}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="11_0D1634248C185343513050EAE9913FB208078C69" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D00FF01D-3816-4C34-9150-6302038344BB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,6 +43,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>John Johnson</author>
+    <author>Islam, Md Muntaha EX1</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -139,6 +140,30 @@
           </rPr>
           <t xml:space="preserve">
 These are the comments provided by the local store manager.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A28" authorId="1" shapeId="0" xr:uid="{6116EAF0-4BA1-40E3-9322-98E937850E36}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Islam, Md Muntaha EX1:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+For multiple modes, select multiple boxes, write function and press shift + crtl + enter for generating an array.</t>
         </r>
       </text>
     </comment>
@@ -210,7 +235,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -229,6 +254,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -567,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -809,7 +847,7 @@
         <v>18</v>
       </c>
       <c r="B27">
-        <f>SUM(C7:C21)/15</f>
+        <f>AVERAGE(C7:C21)</f>
         <v>13.783333333333333</v>
       </c>
     </row>
@@ -818,15 +856,30 @@
         <v>15</v>
       </c>
       <c r="B28">
-        <f>_xlfn.MODE.SNGL(C7:C21)</f>
+        <f t="array" ref="B28:B31">_xlfn.MODE.MULT(C7:C21)</f>
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="B29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B30">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>16</v>
       </c>
-      <c r="B29">
+      <c r="B32">
         <f>MEDIAN(C7:C21)</f>
         <v>13.75</v>
       </c>
